--- a/Örnek 11 - Eğer - Koşullu Biçimlendirme.xlsx
+++ b/Örnek 11 - Eğer - Koşullu Biçimlendirme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamis\Desktop\Excel - MAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{115886A0-F8B9-420C-8BB5-7B55A5621614}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD731D-4906-462A-991A-494DA904BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="www.tugrulaktas.com" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>KARNE</t>
   </si>
@@ -139,12 +142,24 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>GEÇTİ</t>
+  </si>
+  <si>
+    <t>KALDI</t>
+  </si>
+  <si>
+    <t>Muhammed Ali Harmancı</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -749,21 +764,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="0.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="0.125" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
@@ -846,8 +861,13 @@
         <f>SUM(D4:E4,F4:G4)</f>
         <v>202</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="8">
+        <f>AVERAGE(D3:G4)</f>
+        <v>50.5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
@@ -873,8 +893,13 @@
         <f t="shared" ref="H5:H10" si="0">SUM(D5:G5)</f>
         <v>236</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:I11" si="1">AVERAGE(D4:G5)</f>
+        <v>54.75</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L5" s="11" t="s">
         <v>26</v>
       </c>
@@ -908,8 +933,13 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="8">
+        <f t="shared" si="1"/>
+        <v>64.5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -941,8 +971,13 @@
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="8">
+        <f t="shared" si="1"/>
+        <v>53.125</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -974,8 +1009,13 @@
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>47.875</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -1007,8 +1047,13 @@
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="8">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
@@ -1034,10 +1079,15 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>81.75</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -1061,8 +1111,13 @@
         <f>SUM(D11:G11)</f>
         <v>339</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="8">
+        <f t="shared" si="1"/>
+        <v>79.875</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L11" s="13" t="s">
         <v>30</v>
       </c>
@@ -1079,11 +1134,22 @@
         <v>25</v>
       </c>
       <c r="C12" s="19"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="D12" s="7">
+        <v>510</v>
+      </c>
+      <c r="E12" s="7">
+        <v>522</v>
+      </c>
+      <c r="F12" s="7">
+        <v>535</v>
+      </c>
+      <c r="G12" s="7">
+        <v>527</v>
+      </c>
+      <c r="H12" s="7">
+        <f>SUM(D12:G12)</f>
+        <v>2094</v>
+      </c>
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
       <c r="L12" s="12" t="s">
@@ -1096,16 +1162,28 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="21.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="D13" s="7">
+        <f>AVERAGE(D4:D11)</f>
+        <v>63.75</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:G13" si="2">AVERAGE(E4:E11)</f>
+        <v>65.25</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="2"/>
+        <v>66.875</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>65.875</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="25"/>
       <c r="J13" s="26"/>
@@ -1119,7 +1197,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="18.350000000000001" x14ac:dyDescent="0.2">
       <c r="L14" s="12" t="s">
         <v>33</v>
       </c>
@@ -1134,7 +1212,9 @@
       <c r="E17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10">
+        <v>20215070055</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
@@ -1142,7 +1222,9 @@
       <c r="E18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
@@ -1150,7 +1232,9 @@
       <c r="E19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
